--- a/GameDesign/Class/_Done/3_Ninja/Documentation/NinjaSkills.xlsx
+++ b/GameDesign/Class/_Done/3_Ninja/Documentation/NinjaSkills.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\My_Dev\BattleForVoxturia\GameDesign\Class\Done\3_Ninja\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\My_Dev\BattleForVoxturia\GameDesign\Class\_Done\3_Ninja\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1-Cyanide" sheetId="1" r:id="rId1"/>
@@ -1738,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D29"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1929,7 +1929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/GameDesign/Class/_Done/3_Ninja/Documentation/NinjaSkills.xlsx
+++ b/GameDesign/Class/_Done/3_Ninja/Documentation/NinjaSkills.xlsx
@@ -1124,7 +1124,7 @@
   <dimension ref="B2:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GameDesign/Class/_Done/3_Ninja/Documentation/NinjaSkills.xlsx
+++ b/GameDesign/Class/_Done/3_Ninja/Documentation/NinjaSkills.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1-Cyanide" sheetId="1" r:id="rId1"/>
@@ -1123,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2157,8 +2157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D30"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GameDesign/Class/_Done/3_Ninja/Documentation/NinjaSkills.xlsx
+++ b/GameDesign/Class/_Done/3_Ninja/Documentation/NinjaSkills.xlsx
@@ -2158,7 +2158,7 @@
   <dimension ref="B2:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GameDesign/Class/_Done/3_Ninja/Documentation/NinjaSkills.xlsx
+++ b/GameDesign/Class/_Done/3_Ninja/Documentation/NinjaSkills.xlsx
@@ -2157,8 +2157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GameDesign/Class/_Done/3_Ninja/Documentation/NinjaSkills.xlsx
+++ b/GameDesign/Class/_Done/3_Ninja/Documentation/NinjaSkills.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1-Cyanide" sheetId="1" r:id="rId1"/>
@@ -358,46 +358,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Weak]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> +100 levels (2 turns)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Vulnerable]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> +15 levels (2 turns)</t>
-    </r>
-  </si>
-  <si>
     <t>Else:</t>
   </si>
   <si>
@@ -433,26 +393,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Laziness]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> +5 levels (2 turns)</t>
-    </r>
-  </si>
-  <si>
     <t>Increase the target AP for the current turn but reduce the target AP the next turn.</t>
   </si>
   <si>
@@ -473,6 +413,66 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> +3 (1 turn)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Vulnerability]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +15 levels (2 turns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Powerless]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +100 levels (2 turns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Exhausted]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +5 levels (2 turns)</t>
     </r>
   </si>
 </sst>
@@ -1230,7 +1230,7 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -1962,7 +1962,7 @@
   <dimension ref="B2:D30"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C23"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,14 +2089,14 @@
     <row r="20" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
       <c r="C20" s="13" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
       <c r="C21" s="16" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -2157,7 +2157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -2285,7 +2285,7 @@
     <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
       <c r="C20" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D20" s="1"/>
     </row>
@@ -2299,14 +2299,14 @@
     <row r="22" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
       <c r="C22" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B23" s="1"/>
       <c r="C23" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -2476,7 +2476,7 @@
     <row r="19" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
       <c r="C19" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -2530,7 +2530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D25"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -2563,7 +2563,7 @@
     <row r="5" spans="2:4" ht="39" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2575,7 +2575,7 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -2637,14 +2637,14 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D18" s="1"/>
     </row>

--- a/GameDesign/Class/_Done/3_Ninja/Documentation/NinjaSkills.xlsx
+++ b/GameDesign/Class/_Done/3_Ninja/Documentation/NinjaSkills.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\My_Dev\BattleForVoxturia\GameDesign\Class\_Done\3_Ninja\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sébastien Godbout\Desktop\_MyDev\BattleForVoxturia\GameDesign\Class\_Done\3_Ninja\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-Cyanide" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="71">
   <si>
     <t>[[MP: 0 ]]</t>
   </si>
@@ -53,9 +53,6 @@
     <t>[[Modifiable range: No ]]</t>
   </si>
   <si>
-    <t>[[Number of turns between two casts: 2 ]]</t>
-  </si>
-  <si>
     <t>[[Area of effect: - Single cell]]</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>[[Number of casts per turn: 2 ]]</t>
   </si>
   <si>
-    <t>[[Number of cast per turn per target: 2 ]]</t>
-  </si>
-  <si>
     <t>Kunai</t>
   </si>
   <si>
@@ -132,9 +126,6 @@
   </si>
   <si>
     <t>[[Number of turns between two casts: 5 ]]</t>
-  </si>
-  <si>
-    <t>*The poison effect is there if the spell was used whit ''Cyanide''. Even if the player don't have ''Cyanide'' the other turn, the poison is applyed.                                                                                                          *If the player used this spell whitout ''Cyanide'', the spell will not apply poison, even if the player as the ''Cyanide'' effect.</t>
   </si>
   <si>
     <t>[[Area of effect: - Circle of 4 cell radius ]] (60% rate per cell in area)</t>
@@ -320,16 +311,10 @@
     <t>[[Damage:  30-35 wind ]]</t>
   </si>
   <si>
-    <t>Inflicts Wind-type damage and when the caster have the Cyanide effect, also give poisons that inflicts Dark-type damage.                                                 Reduces the target power and resistances.</t>
-  </si>
-  <si>
     <t>[[Damage:  10-15 wind ]]</t>
   </si>
   <si>
     <t>Inflicts Ground-type damage and when the caster have the Cyanide effect, also give poisons that inflicts Dark-type damage.                                        Every cells in the area has a chance to lay a makibishi.                 The affected cell dealt damage when an entity start his turn on it or when crossed.</t>
-  </si>
-  <si>
-    <t>[[Damage:  25 ground ]]</t>
   </si>
   <si>
     <t>Teleports to the targeted cell.                                                      Inflicts Wind-type damage on enemies between the initial caster position and its final position.                                                          Can only be used on cells adjacent and on the other side of a big obstacle.</t>
@@ -358,15 +343,6 @@
     </r>
   </si>
   <si>
-    <t>Else:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ''Makibishi Glyph'' (Active Glyph) (3 turns)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ''Poisoned Makibishi Glyph'' (Active Glyph) (3 turns)</t>
-  </si>
-  <si>
     <t>Enemies: [[Damage: 10 wind ]]</t>
   </si>
   <si>
@@ -423,26 +399,6 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t>[[Vulnerability]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> +15 levels (2 turns)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
       <t>[[Powerless]]</t>
     </r>
     <r>
@@ -475,11 +431,20 @@
       <t xml:space="preserve"> +5 levels (2 turns)</t>
     </r>
   </si>
+  <si>
+    <t>Inflicts Wind-type damage and when the caster have the Cyanide effect, also give poisons that inflicts Dark-type damage.                                                 Reduces the target power.</t>
+  </si>
+  <si>
+    <t>'Makibishi Glyph'' (Active Glyph) (3 turns)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [[Damage:  25 ground ]]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -623,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -660,6 +625,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -973,14 +939,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D23"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -1009,7 +975,7 @@
     <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1021,7 +987,7 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -1052,7 +1018,7 @@
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -1064,7 +1030,7 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -1076,7 +1042,7 @@
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -1120,14 +1086,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B2:D24"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -1144,7 +1110,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1156,7 +1122,7 @@
     <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1168,21 +1134,21 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -1206,7 +1172,7 @@
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1218,7 +1184,7 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -1230,7 +1196,7 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -1274,14 +1240,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:D24"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -1298,7 +1264,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1310,7 +1276,7 @@
     <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1322,21 +1288,21 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -1360,7 +1326,7 @@
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1372,7 +1338,7 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -1384,7 +1350,7 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -1428,14 +1394,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D27"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -1452,7 +1418,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1464,7 +1430,7 @@
     <row r="5" spans="2:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1476,21 +1442,21 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -1514,7 +1480,7 @@
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1526,7 +1492,7 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -1538,30 +1504,30 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
       <c r="C20" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D20" s="1"/>
     </row>
@@ -1605,14 +1571,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:D26"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -1629,7 +1595,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1641,7 +1607,7 @@
     <row r="5" spans="2:4" ht="39" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1653,14 +1619,14 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -1684,7 +1650,7 @@
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -1696,7 +1662,7 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -1708,21 +1674,21 @@
     <row r="16" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="1"/>
       <c r="C16" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="1"/>
       <c r="C18" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -1769,14 +1735,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B2:D28"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C22"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -1793,7 +1759,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1805,7 +1771,7 @@
     <row r="5" spans="2:4" ht="39" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1817,7 +1783,7 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -1831,7 +1797,7 @@
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -1843,21 +1809,21 @@
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1869,87 +1835,80 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
-      <c r="C16" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
-      <c r="C18" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
-      <c r="C20" s="13" t="s">
-        <v>58</v>
+      <c r="C20" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
-      <c r="C21" s="16" t="s">
-        <v>55</v>
+      <c r="C21" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
-      <c r="C22" s="17" t="s">
-        <v>65</v>
-      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="C25" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="C26" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="6"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1958,14 +1917,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="B2:D29"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -1982,7 +1941,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1994,7 +1953,7 @@
     <row r="5" spans="2:4" ht="58.5" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="11" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2006,14 +1965,14 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -2025,21 +1984,21 @@
     <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -2051,14 +2010,14 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -2082,70 +2041,63 @@
     <row r="19" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
       <c r="C19" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
       <c r="C20" s="13" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
       <c r="C21" s="16" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
-      <c r="C22" s="16" t="s">
-        <v>55</v>
+      <c r="C22" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
-      <c r="C23" s="17" t="s">
-        <v>65</v>
-      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
-      <c r="C27" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="6"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2154,14 +2106,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="B2:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -2178,7 +2130,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2190,7 +2142,7 @@
     <row r="5" spans="2:4" ht="97.5" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2202,14 +2154,14 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -2221,21 +2173,21 @@
     <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -2247,7 +2199,7 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -2259,91 +2211,75 @@
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
-      <c r="C18" s="13" t="s">
-        <v>62</v>
+      <c r="C18" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
-      <c r="C19" s="16" t="s">
-        <v>55</v>
+      <c r="C19" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
-      <c r="C20" s="14" t="s">
-        <v>68</v>
+      <c r="C20" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
       <c r="C21" s="14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
-      <c r="C22" s="14" t="s">
-        <v>66</v>
-      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B23" s="1"/>
-      <c r="C23" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="1"/>
-    </row>
+    <row r="23" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B25" s="1"/>
+      <c r="C25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
-      <c r="C27" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="C27" s="9"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="2:4" ht="98.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="1"/>
-      <c r="C29" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="6"/>
+      <c r="D28" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2352,14 +2288,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:D27"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -2376,7 +2312,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2388,7 +2324,7 @@
     <row r="5" spans="2:4" ht="97.5" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2400,21 +2336,21 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -2426,21 +2362,21 @@
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -2452,7 +2388,7 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -2464,7 +2400,7 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -2476,14 +2412,14 @@
     <row r="19" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
       <c r="C19" s="13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
       <c r="C20" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1"/>
     </row>
@@ -2527,14 +2463,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -2551,7 +2487,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2563,7 +2499,7 @@
     <row r="5" spans="2:4" ht="39" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2575,21 +2511,21 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -2613,7 +2549,7 @@
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -2625,7 +2561,7 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -2637,14 +2573,14 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D18" s="1"/>
     </row>
